--- a/biology/Médecine/Score_clinique/Score_clinique.xlsx
+++ b/biology/Médecine/Score_clinique/Score_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un score clinique est un outil d'aide à la décision médicale, agrégeant en une seule valeur plusieurs observations cliniques. Il consiste à pondérer des signes  (anamnèse, examens paracliniques…)  pertinents pour les agréger en une seule valeur numérique, représentative du diagnostic ou du pronostic.
 </t>
@@ -511,9 +523,11 @@
           <t>Le score comme classificateur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme outil de test diagnostic, la qualité d'un score dépend de sa sensibilité et spécificité. On utilise souvent la courbe ROC pour vérifier la valeur discriminatoire d'un score[1] ; et plus spécifiquement pour déterminer la valeur seuil du score à considérer pour classer le patient comme "malade" ou  "non malade".
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme outil de test diagnostic, la qualité d'un score dépend de sa sensibilité et spécificité. On utilise souvent la courbe ROC pour vérifier la valeur discriminatoire d'un score ; et plus spécifiquement pour déterminer la valeur seuil du score à considérer pour classer le patient comme "malade" ou  "non malade".
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les variations de score ne sont pas forcément proportionnelles à l'intensité de la maladie : une variation de 1 point ne représente pas forcément le même degré d'évolution de la maladie lorsqu'on se situe à une extrémité ou  à l'autre du score[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variations de score ne sont pas forcément proportionnelles à l'intensité de la maladie : une variation de 1 point ne représente pas forcément le même degré d'évolution de la maladie lorsqu'on se situe à une extrémité ou  à l'autre du score.
 </t>
         </is>
       </c>
